--- a/Person_B_and_trucks/on_trucks/Processed_Stand_Alone/42_225-80R17.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Stand_Alone/42_225-80R17.xlsx
@@ -19,7 +19,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="56">
+  <si>
+    <t>Signal_Value_48</t>
+  </si>
+  <si>
+    <t>Signal_Value_49</t>
+  </si>
+  <si>
+    <t>Signal_Value_50</t>
+  </si>
+  <si>
+    <t>Signal_Value_51</t>
+  </si>
+  <si>
+    <t>Signal_Value_52</t>
+  </si>
+  <si>
+    <t>Signal_Value_53</t>
+  </si>
+  <si>
+    <t>Signal_Value_54</t>
+  </si>
+  <si>
+    <t>Signal_Value_55</t>
+  </si>
+  <si>
+    <t>Signal_Value_56</t>
+  </si>
+  <si>
+    <t>Signal_Value_57</t>
+  </si>
   <si>
     <t>Signal_Value_58</t>
   </si>
@@ -91,39 +121,6 @@
   </si>
   <si>
     <t>Signal_Value_81</t>
-  </si>
-  <si>
-    <t>Signal_Value_82</t>
-  </si>
-  <si>
-    <t>Signal_Value_83</t>
-  </si>
-  <si>
-    <t>Signal_Value_84</t>
-  </si>
-  <si>
-    <t>Signal_Value_85</t>
-  </si>
-  <si>
-    <t>Signal_Value_86</t>
-  </si>
-  <si>
-    <t>Signal_Value_87</t>
-  </si>
-  <si>
-    <t>Signal_Value_88</t>
-  </si>
-  <si>
-    <t>Signal_Value_89</t>
-  </si>
-  <si>
-    <t>Signal_Value_90</t>
-  </si>
-  <si>
-    <t>Signal_Value_91</t>
-  </si>
-  <si>
-    <t>Signal_Value_92</t>
   </si>
   <si>
     <t>Segment_ID</t>
@@ -547,15 +544,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ6"/>
+  <dimension ref="A1:AI6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -659,454 +656,439 @@
       <c r="AI1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:36">
+    </row>
+    <row r="2" spans="1:35">
       <c r="A2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0.1216881741630084</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0.0446745486533448</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0.08644201323542552</v>
+      </c>
+      <c r="I2">
+        <v>0.02871850501783255</v>
+      </c>
+      <c r="J2">
+        <v>0.02151829009533469</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0.1836153711250699</v>
+      </c>
+      <c r="M2">
+        <v>0.07730352615883682</v>
+      </c>
+      <c r="N2">
+        <v>0.06350908800760414</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0.001350745088562589</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.06850696047312806</v>
+      </c>
+      <c r="T2">
+        <v>0.0545837722600163</v>
+      </c>
+      <c r="U2">
+        <v>0.05422941087480834</v>
+      </c>
+      <c r="V2">
+        <v>0.001566757184667383</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0.006864907836773453</v>
+      </c>
+      <c r="AC2">
+        <v>0.09675416334445508</v>
+      </c>
+      <c r="AD2">
+        <v>0.08363856611447698</v>
+      </c>
+      <c r="AE2">
+        <v>0.005035200366654937</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35">
+      <c r="A3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0.1806491037374188</v>
-      </c>
-      <c r="F2">
-        <v>0.2919699818052948</v>
-      </c>
-      <c r="G2">
-        <v>0.008992064282946346</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0.03178900251222747</v>
-      </c>
-      <c r="J2">
-        <v>0.01015438944110902</v>
-      </c>
-      <c r="K2">
-        <v>0.01484969935693541</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0.07014322571309826</v>
-      </c>
-      <c r="N2">
-        <v>0.05654443852874948</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0.0007746774020523915</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0.03231326094201436</v>
-      </c>
-      <c r="T2">
-        <v>0.06829717391734537</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0.03170028378832641</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>0.009999374404804079</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <v>0.0183097744726793</v>
-      </c>
-      <c r="AD2">
-        <v>0.09866332594815344</v>
-      </c>
-      <c r="AE2">
-        <v>0.0224382759445493</v>
-      </c>
-      <c r="AF2">
-        <v>0</v>
-      </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
-      <c r="AH2">
-        <v>0</v>
-      </c>
-      <c r="AI2">
-        <v>0.05241194780229576</v>
-      </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:36">
-      <c r="A3" s="1" t="s">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0.1071382680275657</v>
+      </c>
+      <c r="E3">
+        <v>0.02960334590357626</v>
+      </c>
+      <c r="F3">
+        <v>0.01063784890155984</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0.09584870595912687</v>
+      </c>
+      <c r="I3">
+        <v>0.02066005270954611</v>
+      </c>
+      <c r="J3">
+        <v>0.03743463756657214</v>
+      </c>
+      <c r="K3">
+        <v>0.01921161801649758</v>
+      </c>
+      <c r="L3">
+        <v>0.160318487303271</v>
+      </c>
+      <c r="M3">
+        <v>0.0677276177320391</v>
+      </c>
+      <c r="N3">
+        <v>0.05848365148563638</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0.01392330676529035</v>
+      </c>
+      <c r="R3">
+        <v>0.002343704222802975</v>
+      </c>
+      <c r="S3">
+        <v>0.09098026223350708</v>
+      </c>
+      <c r="T3">
+        <v>0.05968603435161766</v>
+      </c>
+      <c r="U3">
+        <v>0.04404243587869322</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0.003150421273583939</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0.01528435942967138</v>
+      </c>
+      <c r="AC3">
+        <v>0.1067640065735924</v>
+      </c>
+      <c r="AD3">
+        <v>0.05676123566584992</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35">
+      <c r="A4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0.1152671548090895</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0.2956481462747582</v>
-      </c>
-      <c r="H3">
-        <v>0.0005599140615966256</v>
-      </c>
-      <c r="I3">
-        <v>0.02069082663766454</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0.02597367668428472</v>
-      </c>
-      <c r="M3">
-        <v>0.01843487522642335</v>
-      </c>
-      <c r="N3">
-        <v>0.01117012641684706</v>
-      </c>
-      <c r="O3">
-        <v>0.1689122403933956</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0.06067764504195666</v>
-      </c>
-      <c r="U3">
-        <v>0.04190095387099034</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>0.007773049800268729</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>0.008920858445347565</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
-      <c r="AD3">
-        <v>0.04176022220991234</v>
-      </c>
-      <c r="AE3">
-        <v>0.1273595999570336</v>
-      </c>
-      <c r="AF3">
-        <v>0</v>
-      </c>
-      <c r="AG3">
-        <v>0</v>
-      </c>
-      <c r="AH3">
-        <v>0</v>
-      </c>
-      <c r="AI3">
-        <v>0.005755767935039623</v>
-      </c>
-      <c r="AJ3">
-        <v>0.04919494223539166</v>
-      </c>
-    </row>
-    <row r="4" spans="1:36">
-      <c r="A4" s="1" t="s">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0.1924488927213312</v>
+      </c>
+      <c r="E4">
+        <v>0.03064861805596035</v>
+      </c>
+      <c r="F4">
+        <v>0.03438917068502072</v>
+      </c>
+      <c r="G4">
+        <v>0.008906347543151864</v>
+      </c>
+      <c r="H4">
+        <v>0.07836882398665829</v>
+      </c>
+      <c r="I4">
+        <v>0.00126052221525371</v>
+      </c>
+      <c r="J4">
+        <v>0.01974976048913926</v>
+      </c>
+      <c r="K4">
+        <v>0.05422355636920504</v>
+      </c>
+      <c r="L4">
+        <v>0.1638673494289767</v>
+      </c>
+      <c r="M4">
+        <v>0.01378251228409772</v>
+      </c>
+      <c r="N4">
+        <v>0.108174213706497</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0.01738278233573231</v>
+      </c>
+      <c r="R4">
+        <v>0.02640662414239815</v>
+      </c>
+      <c r="S4">
+        <v>0.05610711942398248</v>
+      </c>
+      <c r="T4">
+        <v>0.005578575771532348</v>
+      </c>
+      <c r="U4">
+        <v>0.04324441021228431</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0.008516355293806824</v>
+      </c>
+      <c r="AC4">
+        <v>0.09382594625587937</v>
+      </c>
+      <c r="AD4">
+        <v>0.04311841907909242</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35">
+      <c r="A5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0.03184889134399857</v>
-      </c>
-      <c r="E4">
-        <v>0.0660802745501909</v>
-      </c>
-      <c r="F4">
-        <v>0.2814520017784889</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0.01678270386237836</v>
-      </c>
-      <c r="I4">
-        <v>0.05109687159581133</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0.00336669520463865</v>
-      </c>
-      <c r="L4">
-        <v>0.125192493619958</v>
-      </c>
-      <c r="M4">
-        <v>0.005289037054195332</v>
-      </c>
-      <c r="N4">
-        <v>0.06432171563346049</v>
-      </c>
-      <c r="O4">
-        <v>0.001440970016561723</v>
-      </c>
-      <c r="P4">
-        <v>0.005800679683419603</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0.08324430015123112</v>
-      </c>
-      <c r="T4">
-        <v>0.02621079021411546</v>
-      </c>
-      <c r="U4">
-        <v>0.0002956634246393913</v>
-      </c>
-      <c r="V4">
-        <v>0.01179594107374536</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-      <c r="Z4">
-        <v>0.005240669574220732</v>
-      </c>
-      <c r="AA4">
-        <v>0.0004118597115124203</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-      <c r="AC4">
-        <v>0.02774845040082538</v>
-      </c>
-      <c r="AD4">
-        <v>0.127950606889279</v>
-      </c>
-      <c r="AE4">
-        <v>0.0138311525017559</v>
-      </c>
-      <c r="AF4">
-        <v>0</v>
-      </c>
-      <c r="AG4">
-        <v>0.01738256668182936</v>
-      </c>
-      <c r="AH4">
-        <v>0</v>
-      </c>
-      <c r="AI4">
-        <v>0.03321566503374412</v>
-      </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:36">
-      <c r="A5" s="1" t="s">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0.1859441851677515</v>
+      </c>
+      <c r="E5">
+        <v>0.01501771419665349</v>
+      </c>
+      <c r="F5">
+        <v>0.05309223971706892</v>
+      </c>
+      <c r="G5">
+        <v>0.02590453980948021</v>
+      </c>
+      <c r="H5">
+        <v>0.04973871252702482</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0.02040448136932477</v>
+      </c>
+      <c r="K5">
+        <v>0.06363625636506447</v>
+      </c>
+      <c r="L5">
+        <v>0.1357618423203043</v>
+      </c>
+      <c r="M5">
+        <v>0.006432712591689718</v>
+      </c>
+      <c r="N5">
+        <v>0.1464095438710087</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0.00676858825629112</v>
+      </c>
+      <c r="R5">
+        <v>0.03291069406966483</v>
+      </c>
+      <c r="S5">
+        <v>0.02521266403362217</v>
+      </c>
+      <c r="T5">
+        <v>0.0104334755880255</v>
+      </c>
+      <c r="U5">
+        <v>0.07303083859087112</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0.01257803797921591</v>
+      </c>
+      <c r="AC5">
+        <v>0.0830754859461596</v>
+      </c>
+      <c r="AD5">
+        <v>0.05318738664744118</v>
+      </c>
+      <c r="AE5">
+        <v>0.0004606009533377811</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35">
+      <c r="A6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0.2765696903328075</v>
-      </c>
-      <c r="F5">
-        <v>0.1593966693624001</v>
-      </c>
-      <c r="G5">
-        <v>0.04635337625608153</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0.03738264665979879</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0.009822858848574034</v>
-      </c>
-      <c r="L5">
-        <v>0.0732565474801822</v>
-      </c>
-      <c r="M5">
-        <v>0.006670411058291809</v>
-      </c>
-      <c r="N5">
-        <v>0.03921662726288724</v>
-      </c>
-      <c r="O5">
-        <v>0.03816842203002564</v>
-      </c>
-      <c r="P5">
-        <v>0.002415493653806708</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0.02624769953171851</v>
-      </c>
-      <c r="T5">
-        <v>0.06545724656504656</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0.01821426470059954</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>0.00971833519164832</v>
-      </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
-        <v>0.005882868038165722</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
-        <v>0.001810024550478369</v>
-      </c>
-      <c r="AD5">
-        <v>0.09398392014267906</v>
-      </c>
-      <c r="AE5">
-        <v>0.05858755177557829</v>
-      </c>
-      <c r="AF5">
-        <v>0</v>
-      </c>
-      <c r="AG5">
-        <v>0</v>
-      </c>
-      <c r="AH5">
-        <v>0</v>
-      </c>
-      <c r="AI5">
-        <v>0.03084534655922999</v>
-      </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:36">
-      <c r="A6" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="B6">
         <v>0</v>
       </c>
@@ -1114,67 +1096,67 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.2047028042760643</v>
       </c>
       <c r="E6">
-        <v>0.2289901104482266</v>
+        <v>0.006652262018078488</v>
       </c>
       <c r="F6">
-        <v>0.03425835099463566</v>
+        <v>0.05364272877326944</v>
       </c>
       <c r="G6">
-        <v>0.1448711024940938</v>
+        <v>0.006300228206736</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.06710310308948493</v>
       </c>
       <c r="I6">
-        <v>0.01362512119418069</v>
+        <v>0.003543900436984205</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.02196098198754616</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.03846935531413392</v>
       </c>
       <c r="L6">
-        <v>0.09131402427987571</v>
+        <v>0.179440421330404</v>
       </c>
       <c r="M6">
-        <v>0.01661562580095783</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.02385911854767411</v>
+        <v>0.1218270103610836</v>
       </c>
       <c r="O6">
-        <v>0.1016553528192589</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>0.01747849258190622</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>0.01537020328404072</v>
       </c>
       <c r="S6">
-        <v>0.008606666903703198</v>
+        <v>0.05008414357195011</v>
       </c>
       <c r="T6">
-        <v>0.07820614351570217</v>
+        <v>0.007983200348881692</v>
       </c>
       <c r="U6">
-        <v>0.02381478051187402</v>
+        <v>0.05740221003415147</v>
       </c>
       <c r="V6">
-        <v>0.007263687633896638</v>
+        <v>0</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
-        <v>0.0002233115756684116</v>
+        <v>0</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -1183,19 +1165,19 @@
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.0111689939891105</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>0.01104753029103913</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>0.07825725504605441</v>
       </c>
       <c r="AD6">
-        <v>0.06682411997880898</v>
+        <v>0.05873416904819124</v>
       </c>
       <c r="AE6">
-        <v>0.11317262287386</v>
+        <v>0</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1207,10 +1189,7 @@
         <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.01478366052008975</v>
-      </c>
-      <c r="AJ6">
-        <v>0.02074720591838335</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1220,15 +1199,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ6"/>
+  <dimension ref="A1:AI6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1332,13 +1311,10 @@
       <c r="AI1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:36">
+    </row>
+    <row r="2" spans="1:35">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1347,439 +1323,427 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.1216881741630084</v>
       </c>
       <c r="E2">
-        <v>0.1806491037374188</v>
+        <v>0.1216881741630084</v>
       </c>
       <c r="F2">
-        <v>0.4726190855427135</v>
+        <v>0.1663627228163532</v>
       </c>
       <c r="G2">
-        <v>0.4816111498256599</v>
+        <v>0.1663627228163532</v>
       </c>
       <c r="H2">
-        <v>0.4816111498256599</v>
+        <v>0.2528047360517787</v>
       </c>
       <c r="I2">
-        <v>0.5134001523378874</v>
+        <v>0.2815232410696112</v>
       </c>
       <c r="J2">
-        <v>0.5235545417789964</v>
+        <v>0.3030415311649459</v>
       </c>
       <c r="K2">
-        <v>0.5384042411359318</v>
+        <v>0.3030415311649459</v>
       </c>
       <c r="L2">
-        <v>0.5384042411359318</v>
+        <v>0.4866569022900158</v>
       </c>
       <c r="M2">
-        <v>0.60854746684903</v>
+        <v>0.5639604284488526</v>
       </c>
       <c r="N2">
-        <v>0.6650919053777795</v>
+        <v>0.6274695164564568</v>
       </c>
       <c r="O2">
-        <v>0.6650919053777795</v>
+        <v>0.6274695164564568</v>
       </c>
       <c r="P2">
-        <v>0.6650919053777795</v>
+        <v>0.6274695164564568</v>
       </c>
       <c r="Q2">
-        <v>0.6658665827798319</v>
+        <v>0.6288202615450194</v>
       </c>
       <c r="R2">
-        <v>0.6658665827798319</v>
+        <v>0.6288202615450194</v>
       </c>
       <c r="S2">
-        <v>0.6981798437218463</v>
+        <v>0.6973272220181475</v>
       </c>
       <c r="T2">
-        <v>0.7664770176391916</v>
+        <v>0.7519109942781638</v>
       </c>
       <c r="U2">
-        <v>0.7664770176391916</v>
+        <v>0.8061404051529721</v>
       </c>
       <c r="V2">
-        <v>0.7981773014275181</v>
+        <v>0.8077071623376395</v>
       </c>
       <c r="W2">
-        <v>0.7981773014275181</v>
+        <v>0.8077071623376395</v>
       </c>
       <c r="X2">
-        <v>0.8081766758323221</v>
+        <v>0.8077071623376395</v>
       </c>
       <c r="Y2">
-        <v>0.8081766758323221</v>
+        <v>0.8077071623376395</v>
       </c>
       <c r="Z2">
-        <v>0.8081766758323221</v>
+        <v>0.8077071623376395</v>
       </c>
       <c r="AA2">
-        <v>0.8081766758323221</v>
+        <v>0.8077071623376395</v>
       </c>
       <c r="AB2">
-        <v>0.8081766758323221</v>
+        <v>0.8145720701744129</v>
       </c>
       <c r="AC2">
-        <v>0.8264864503050015</v>
+        <v>0.911326233518868</v>
       </c>
       <c r="AD2">
-        <v>0.9251497762531549</v>
+        <v>0.9949647996333449</v>
       </c>
       <c r="AE2">
-        <v>0.9475880521977041</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AF2">
-        <v>0.9475880521977041</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG2">
-        <v>0.9475880521977041</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH2">
-        <v>0.9475880521977041</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI2">
         <v>0.9999999999999999</v>
       </c>
-      <c r="AJ2">
-        <v>0.9999999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:36">
+    </row>
+    <row r="3" spans="1:35">
       <c r="A3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0.1071382680275657</v>
+      </c>
+      <c r="E3">
+        <v>0.1367416139311419</v>
+      </c>
+      <c r="F3">
+        <v>0.1473794628327018</v>
+      </c>
+      <c r="G3">
+        <v>0.1473794628327018</v>
+      </c>
+      <c r="H3">
+        <v>0.2432281687918286</v>
+      </c>
+      <c r="I3">
+        <v>0.2638882215013748</v>
+      </c>
+      <c r="J3">
+        <v>0.3013228590679469</v>
+      </c>
+      <c r="K3">
+        <v>0.3205344770844444</v>
+      </c>
+      <c r="L3">
+        <v>0.4808529643877155</v>
+      </c>
+      <c r="M3">
+        <v>0.5485805821197546</v>
+      </c>
+      <c r="N3">
+        <v>0.607064233605391</v>
+      </c>
+      <c r="O3">
+        <v>0.607064233605391</v>
+      </c>
+      <c r="P3">
+        <v>0.607064233605391</v>
+      </c>
+      <c r="Q3">
+        <v>0.6209875403706813</v>
+      </c>
+      <c r="R3">
+        <v>0.6233312445934842</v>
+      </c>
+      <c r="S3">
+        <v>0.7143115068269913</v>
+      </c>
+      <c r="T3">
+        <v>0.773997541178609</v>
+      </c>
+      <c r="U3">
+        <v>0.8180399770573021</v>
+      </c>
+      <c r="V3">
+        <v>0.8180399770573021</v>
+      </c>
+      <c r="W3">
+        <v>0.8180399770573021</v>
+      </c>
+      <c r="X3">
+        <v>0.8180399770573021</v>
+      </c>
+      <c r="Y3">
+        <v>0.821190398330886</v>
+      </c>
+      <c r="Z3">
+        <v>0.821190398330886</v>
+      </c>
+      <c r="AA3">
+        <v>0.821190398330886</v>
+      </c>
+      <c r="AB3">
+        <v>0.8364747577605575</v>
+      </c>
+      <c r="AC3">
+        <v>0.9432387643341499</v>
+      </c>
+      <c r="AD3">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AE3">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AF3">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AG3">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AH3">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AI3">
+        <v>0.9999999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35">
+      <c r="A4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0.1152671548090895</v>
-      </c>
-      <c r="F3">
-        <v>0.1152671548090895</v>
-      </c>
-      <c r="G3">
-        <v>0.4109153010838477</v>
-      </c>
-      <c r="H3">
-        <v>0.4114752151454443</v>
-      </c>
-      <c r="I3">
-        <v>0.4321660417831088</v>
-      </c>
-      <c r="J3">
-        <v>0.4321660417831088</v>
-      </c>
-      <c r="K3">
-        <v>0.4321660417831088</v>
-      </c>
-      <c r="L3">
-        <v>0.4581397184673935</v>
-      </c>
-      <c r="M3">
-        <v>0.4765745936938169</v>
-      </c>
-      <c r="N3">
-        <v>0.4877447201106639</v>
-      </c>
-      <c r="O3">
-        <v>0.6566569605040595</v>
-      </c>
-      <c r="P3">
-        <v>0.6566569605040595</v>
-      </c>
-      <c r="Q3">
-        <v>0.6566569605040595</v>
-      </c>
-      <c r="R3">
-        <v>0.6566569605040595</v>
-      </c>
-      <c r="S3">
-        <v>0.6566569605040595</v>
-      </c>
-      <c r="T3">
-        <v>0.7173346055460161</v>
-      </c>
-      <c r="U3">
-        <v>0.7592355594170065</v>
-      </c>
-      <c r="V3">
-        <v>0.7592355594170065</v>
-      </c>
-      <c r="W3">
-        <v>0.7670086092172752</v>
-      </c>
-      <c r="X3">
-        <v>0.7670086092172752</v>
-      </c>
-      <c r="Y3">
-        <v>0.7759294676626227</v>
-      </c>
-      <c r="Z3">
-        <v>0.7759294676626227</v>
-      </c>
-      <c r="AA3">
-        <v>0.7759294676626227</v>
-      </c>
-      <c r="AB3">
-        <v>0.7759294676626227</v>
-      </c>
-      <c r="AC3">
-        <v>0.7759294676626227</v>
-      </c>
-      <c r="AD3">
-        <v>0.8176896898725351</v>
-      </c>
-      <c r="AE3">
-        <v>0.9450492898295687</v>
-      </c>
-      <c r="AF3">
-        <v>0.9450492898295687</v>
-      </c>
-      <c r="AG3">
-        <v>0.9450492898295687</v>
-      </c>
-      <c r="AH3">
-        <v>0.9450492898295687</v>
-      </c>
-      <c r="AI3">
-        <v>0.9508050577646083</v>
-      </c>
-      <c r="AJ3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:36">
-      <c r="A4" s="1" t="s">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0.1924488927213312</v>
+      </c>
+      <c r="E4">
+        <v>0.2230975107772915</v>
+      </c>
+      <c r="F4">
+        <v>0.2574866814623122</v>
+      </c>
+      <c r="G4">
+        <v>0.2663930290054641</v>
+      </c>
+      <c r="H4">
+        <v>0.3447618529921224</v>
+      </c>
+      <c r="I4">
+        <v>0.3460223752073761</v>
+      </c>
+      <c r="J4">
+        <v>0.3657721356965153</v>
+      </c>
+      <c r="K4">
+        <v>0.4199956920657204</v>
+      </c>
+      <c r="L4">
+        <v>0.5838630414946971</v>
+      </c>
+      <c r="M4">
+        <v>0.5976455537787949</v>
+      </c>
+      <c r="N4">
+        <v>0.705819767485292</v>
+      </c>
+      <c r="O4">
+        <v>0.705819767485292</v>
+      </c>
+      <c r="P4">
+        <v>0.705819767485292</v>
+      </c>
+      <c r="Q4">
+        <v>0.7232025498210243</v>
+      </c>
+      <c r="R4">
+        <v>0.7496091739634224</v>
+      </c>
+      <c r="S4">
+        <v>0.8057162933874049</v>
+      </c>
+      <c r="T4">
+        <v>0.8112948691589372</v>
+      </c>
+      <c r="U4">
+        <v>0.8545392793712215</v>
+      </c>
+      <c r="V4">
+        <v>0.8545392793712215</v>
+      </c>
+      <c r="W4">
+        <v>0.8545392793712215</v>
+      </c>
+      <c r="X4">
+        <v>0.8545392793712215</v>
+      </c>
+      <c r="Y4">
+        <v>0.8545392793712215</v>
+      </c>
+      <c r="Z4">
+        <v>0.8545392793712215</v>
+      </c>
+      <c r="AA4">
+        <v>0.8545392793712215</v>
+      </c>
+      <c r="AB4">
+        <v>0.8630556346650283</v>
+      </c>
+      <c r="AC4">
+        <v>0.9568815809209077</v>
+      </c>
+      <c r="AD4">
+        <v>1</v>
+      </c>
+      <c r="AE4">
+        <v>1</v>
+      </c>
+      <c r="AF4">
+        <v>1</v>
+      </c>
+      <c r="AG4">
+        <v>1</v>
+      </c>
+      <c r="AH4">
+        <v>1</v>
+      </c>
+      <c r="AI4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35">
+      <c r="A5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0.03184889134399857</v>
-      </c>
-      <c r="E4">
-        <v>0.09792916589418947</v>
-      </c>
-      <c r="F4">
-        <v>0.3793811676726784</v>
-      </c>
-      <c r="G4">
-        <v>0.3793811676726784</v>
-      </c>
-      <c r="H4">
-        <v>0.3961638715350567</v>
-      </c>
-      <c r="I4">
-        <v>0.4472607431308681</v>
-      </c>
-      <c r="J4">
-        <v>0.4472607431308681</v>
-      </c>
-      <c r="K4">
-        <v>0.4506274383355067</v>
-      </c>
-      <c r="L4">
-        <v>0.5758199319554647</v>
-      </c>
-      <c r="M4">
-        <v>0.58110896900966</v>
-      </c>
-      <c r="N4">
-        <v>0.6454306846431205</v>
-      </c>
-      <c r="O4">
-        <v>0.6468716546596822</v>
-      </c>
-      <c r="P4">
-        <v>0.6526723343431018</v>
-      </c>
-      <c r="Q4">
-        <v>0.6526723343431018</v>
-      </c>
-      <c r="R4">
-        <v>0.6526723343431018</v>
-      </c>
-      <c r="S4">
-        <v>0.7359166344943329</v>
-      </c>
-      <c r="T4">
-        <v>0.7621274247084483</v>
-      </c>
-      <c r="U4">
-        <v>0.7624230881330877</v>
-      </c>
-      <c r="V4">
-        <v>0.7742190292068331</v>
-      </c>
-      <c r="W4">
-        <v>0.7742190292068331</v>
-      </c>
-      <c r="X4">
-        <v>0.7742190292068331</v>
-      </c>
-      <c r="Y4">
-        <v>0.7742190292068331</v>
-      </c>
-      <c r="Z4">
-        <v>0.7794596987810538</v>
-      </c>
-      <c r="AA4">
-        <v>0.7798715584925663</v>
-      </c>
-      <c r="AB4">
-        <v>0.7798715584925663</v>
-      </c>
-      <c r="AC4">
-        <v>0.8076200088933917</v>
-      </c>
-      <c r="AD4">
-        <v>0.9355706157826706</v>
-      </c>
-      <c r="AE4">
-        <v>0.9494017682844266</v>
-      </c>
-      <c r="AF4">
-        <v>0.9494017682844266</v>
-      </c>
-      <c r="AG4">
-        <v>0.9667843349662559</v>
-      </c>
-      <c r="AH4">
-        <v>0.9667843349662559</v>
-      </c>
-      <c r="AI4">
-        <v>1</v>
-      </c>
-      <c r="AJ4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:36">
-      <c r="A5" s="1" t="s">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0.1859441851677515</v>
+      </c>
+      <c r="E5">
+        <v>0.200961899364405</v>
+      </c>
+      <c r="F5">
+        <v>0.2540541390814739</v>
+      </c>
+      <c r="G5">
+        <v>0.2799586788909541</v>
+      </c>
+      <c r="H5">
+        <v>0.3296973914179789</v>
+      </c>
+      <c r="I5">
+        <v>0.3296973914179789</v>
+      </c>
+      <c r="J5">
+        <v>0.3501018727873037</v>
+      </c>
+      <c r="K5">
+        <v>0.4137381291523682</v>
+      </c>
+      <c r="L5">
+        <v>0.5494999714726725</v>
+      </c>
+      <c r="M5">
+        <v>0.5559326840643622</v>
+      </c>
+      <c r="N5">
+        <v>0.7023422279353709</v>
+      </c>
+      <c r="O5">
+        <v>0.7023422279353709</v>
+      </c>
+      <c r="P5">
+        <v>0.7023422279353709</v>
+      </c>
+      <c r="Q5">
+        <v>0.7091108161916621</v>
+      </c>
+      <c r="R5">
+        <v>0.7420215102613269</v>
+      </c>
+      <c r="S5">
+        <v>0.7672341742949491</v>
+      </c>
+      <c r="T5">
+        <v>0.7776676498829747</v>
+      </c>
+      <c r="U5">
+        <v>0.8506984884738458</v>
+      </c>
+      <c r="V5">
+        <v>0.8506984884738458</v>
+      </c>
+      <c r="W5">
+        <v>0.8506984884738458</v>
+      </c>
+      <c r="X5">
+        <v>0.8506984884738458</v>
+      </c>
+      <c r="Y5">
+        <v>0.8506984884738458</v>
+      </c>
+      <c r="Z5">
+        <v>0.8506984884738458</v>
+      </c>
+      <c r="AA5">
+        <v>0.8506984884738458</v>
+      </c>
+      <c r="AB5">
+        <v>0.8632765264530616</v>
+      </c>
+      <c r="AC5">
+        <v>0.9463520123992213</v>
+      </c>
+      <c r="AD5">
+        <v>0.9995393990466624</v>
+      </c>
+      <c r="AE5">
+        <v>1</v>
+      </c>
+      <c r="AF5">
+        <v>1</v>
+      </c>
+      <c r="AG5">
+        <v>1</v>
+      </c>
+      <c r="AH5">
+        <v>1</v>
+      </c>
+      <c r="AI5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35">
+      <c r="A6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0.2765696903328075</v>
-      </c>
-      <c r="F5">
-        <v>0.4359663596952076</v>
-      </c>
-      <c r="G5">
-        <v>0.4823197359512891</v>
-      </c>
-      <c r="H5">
-        <v>0.4823197359512891</v>
-      </c>
-      <c r="I5">
-        <v>0.5197023826110879</v>
-      </c>
-      <c r="J5">
-        <v>0.5197023826110879</v>
-      </c>
-      <c r="K5">
-        <v>0.529525241459662</v>
-      </c>
-      <c r="L5">
-        <v>0.6027817889398441</v>
-      </c>
-      <c r="M5">
-        <v>0.6094521999981359</v>
-      </c>
-      <c r="N5">
-        <v>0.6486688272610232</v>
-      </c>
-      <c r="O5">
-        <v>0.6868372492910488</v>
-      </c>
-      <c r="P5">
-        <v>0.6892527429448555</v>
-      </c>
-      <c r="Q5">
-        <v>0.6892527429448555</v>
-      </c>
-      <c r="R5">
-        <v>0.6892527429448555</v>
-      </c>
-      <c r="S5">
-        <v>0.715500442476574</v>
-      </c>
-      <c r="T5">
-        <v>0.7809576890416206</v>
-      </c>
-      <c r="U5">
-        <v>0.7809576890416206</v>
-      </c>
-      <c r="V5">
-        <v>0.7991719537422201</v>
-      </c>
-      <c r="W5">
-        <v>0.7991719537422201</v>
-      </c>
-      <c r="X5">
-        <v>0.8088902889338684</v>
-      </c>
-      <c r="Y5">
-        <v>0.8088902889338684</v>
-      </c>
-      <c r="Z5">
-        <v>0.8088902889338684</v>
-      </c>
-      <c r="AA5">
-        <v>0.8147731569720341</v>
-      </c>
-      <c r="AB5">
-        <v>0.8147731569720341</v>
-      </c>
-      <c r="AC5">
-        <v>0.8165831815225125</v>
-      </c>
-      <c r="AD5">
-        <v>0.9105671016651916</v>
-      </c>
-      <c r="AE5">
-        <v>0.9691546534407699</v>
-      </c>
-      <c r="AF5">
-        <v>0.9691546534407699</v>
-      </c>
-      <c r="AG5">
-        <v>0.9691546534407699</v>
-      </c>
-      <c r="AH5">
-        <v>0.9691546534407699</v>
-      </c>
-      <c r="AI5">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AJ5">
-        <v>0.9999999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:36">
-      <c r="A6" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="B6">
         <v>0</v>
       </c>
@@ -1787,102 +1751,99 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.2047028042760643</v>
       </c>
       <c r="E6">
-        <v>0.2289901104482266</v>
+        <v>0.2113550662941428</v>
       </c>
       <c r="F6">
-        <v>0.2632484614428623</v>
+        <v>0.2649977950674122</v>
       </c>
       <c r="G6">
-        <v>0.4081195639369561</v>
+        <v>0.2712980232741482</v>
       </c>
       <c r="H6">
-        <v>0.4081195639369561</v>
+        <v>0.3384011263636331</v>
       </c>
       <c r="I6">
-        <v>0.4217446851311368</v>
+        <v>0.3419450268006173</v>
       </c>
       <c r="J6">
-        <v>0.4217446851311368</v>
+        <v>0.3639060087881635</v>
       </c>
       <c r="K6">
-        <v>0.4217446851311368</v>
+        <v>0.4023753641022974</v>
       </c>
       <c r="L6">
-        <v>0.5130587094110125</v>
+        <v>0.5818157854327014</v>
       </c>
       <c r="M6">
-        <v>0.5296743352119704</v>
+        <v>0.5818157854327014</v>
       </c>
       <c r="N6">
-        <v>0.5535334537596445</v>
+        <v>0.703642795793785</v>
       </c>
       <c r="O6">
-        <v>0.6551888065789033</v>
+        <v>0.703642795793785</v>
       </c>
       <c r="P6">
-        <v>0.6551888065789033</v>
+        <v>0.703642795793785</v>
       </c>
       <c r="Q6">
-        <v>0.6551888065789033</v>
+        <v>0.7211212883756912</v>
       </c>
       <c r="R6">
-        <v>0.6551888065789033</v>
+        <v>0.7364914916597319</v>
       </c>
       <c r="S6">
-        <v>0.6637954734826065</v>
+        <v>0.7865756352316821</v>
       </c>
       <c r="T6">
-        <v>0.7420016169983087</v>
+        <v>0.7945588355805637</v>
       </c>
       <c r="U6">
-        <v>0.7658163975101827</v>
+        <v>0.8519610456147152</v>
       </c>
       <c r="V6">
-        <v>0.7730800851440793</v>
+        <v>0.8519610456147152</v>
       </c>
       <c r="W6">
-        <v>0.7730800851440793</v>
+        <v>0.8519610456147152</v>
       </c>
       <c r="X6">
-        <v>0.7733033967197478</v>
+        <v>0.8519610456147152</v>
       </c>
       <c r="Y6">
-        <v>0.7733033967197478</v>
+        <v>0.8519610456147152</v>
       </c>
       <c r="Z6">
-        <v>0.7733033967197478</v>
+        <v>0.8519610456147152</v>
       </c>
       <c r="AA6">
-        <v>0.7844723907088583</v>
+        <v>0.8519610456147152</v>
       </c>
       <c r="AB6">
-        <v>0.7844723907088583</v>
+        <v>0.8630085759057543</v>
       </c>
       <c r="AC6">
-        <v>0.7844723907088583</v>
+        <v>0.9412658309518087</v>
       </c>
       <c r="AD6">
-        <v>0.8512965106876673</v>
+        <v>1</v>
       </c>
       <c r="AE6">
-        <v>0.9644691335615273</v>
+        <v>1</v>
       </c>
       <c r="AF6">
-        <v>0.9644691335615273</v>
+        <v>1</v>
       </c>
       <c r="AG6">
-        <v>0.9644691335615273</v>
+        <v>1</v>
       </c>
       <c r="AH6">
-        <v>0.9644691335615273</v>
+        <v>1</v>
       </c>
       <c r="AI6">
-        <v>0.979252794081617</v>
-      </c>
-      <c r="AJ6">
         <v>1</v>
       </c>
     </row>
@@ -1901,66 +1862,66 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2">
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5134001523378874</v>
+        <v>0.5639604284488526</v>
       </c>
       <c r="G2">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H2">
         <v>42</v>
@@ -1969,39 +1930,39 @@
         <v>900</v>
       </c>
       <c r="J2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" t="s">
         <v>53</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>54</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>55</v>
-      </c>
-      <c r="M2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3">
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.6566569605040595</v>
+        <v>0.5485805821197546</v>
       </c>
       <c r="G3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H3">
         <v>42</v>
@@ -2010,27 +1971,27 @@
         <v>900</v>
       </c>
       <c r="J3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" t="s">
         <v>53</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>54</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>55</v>
-      </c>
-      <c r="M3" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4">
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>11</v>
@@ -2039,10 +2000,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5758199319554647</v>
+        <v>0.5838630414946971</v>
       </c>
       <c r="G4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H4">
         <v>42</v>
@@ -2051,39 +2012,39 @@
         <v>900</v>
       </c>
       <c r="J4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" t="s">
         <v>53</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>54</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>55</v>
-      </c>
-      <c r="M4" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5">
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5197023826110879</v>
+        <v>0.5494999714726725</v>
       </c>
       <c r="G5">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H5">
         <v>42</v>
@@ -2092,27 +2053,27 @@
         <v>900</v>
       </c>
       <c r="J5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" t="s">
         <v>53</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>54</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>55</v>
-      </c>
-      <c r="M5" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6">
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <v>11</v>
@@ -2121,10 +2082,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5130587094110125</v>
+        <v>0.5818157854327014</v>
       </c>
       <c r="G6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H6">
         <v>42</v>
@@ -2133,16 +2094,16 @@
         <v>900</v>
       </c>
       <c r="J6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" t="s">
         <v>53</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>54</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>55</v>
-      </c>
-      <c r="M6" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2160,54 +2121,54 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2">
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>19</v>
@@ -2216,10 +2177,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7664770176391916</v>
+        <v>0.7519109942781638</v>
       </c>
       <c r="G2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H2">
         <v>42</v>
@@ -2228,36 +2189,36 @@
         <v>900</v>
       </c>
       <c r="J2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" t="s">
         <v>53</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>54</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>55</v>
-      </c>
-      <c r="M2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3">
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7173346055460161</v>
+        <v>0.7143115068269913</v>
       </c>
       <c r="G3">
         <v>17</v>
@@ -2269,39 +2230,39 @@
         <v>900</v>
       </c>
       <c r="J3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" t="s">
         <v>53</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>54</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>55</v>
-      </c>
-      <c r="M3" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4">
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7359166344943329</v>
+        <v>0.705819767485292</v>
       </c>
       <c r="G4">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H4">
         <v>42</v>
@@ -2310,39 +2271,39 @@
         <v>900</v>
       </c>
       <c r="J4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" t="s">
         <v>53</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>54</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>55</v>
-      </c>
-      <c r="M4" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5">
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.715500442476574</v>
+        <v>0.7023422279353709</v>
       </c>
       <c r="G5">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H5">
         <v>42</v>
@@ -2351,39 +2312,39 @@
         <v>900</v>
       </c>
       <c r="J5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" t="s">
         <v>53</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>54</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>55</v>
-      </c>
-      <c r="M5" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6">
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7420016169983087</v>
+        <v>0.703642795793785</v>
       </c>
       <c r="G6">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H6">
         <v>42</v>
@@ -2392,16 +2353,16 @@
         <v>900</v>
       </c>
       <c r="J6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" t="s">
         <v>53</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>54</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>55</v>
-      </c>
-      <c r="M6" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2419,66 +2380,66 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2">
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8081766758323221</v>
+        <v>0.8061404051529721</v>
       </c>
       <c r="G2">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H2">
         <v>42</v>
@@ -2487,39 +2448,39 @@
         <v>900</v>
       </c>
       <c r="J2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" t="s">
         <v>53</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>54</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>55</v>
-      </c>
-      <c r="M2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3">
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8176896898725351</v>
+        <v>0.8180399770573021</v>
       </c>
       <c r="G3">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="H3">
         <v>42</v>
@@ -2528,39 +2489,39 @@
         <v>900</v>
       </c>
       <c r="J3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" t="s">
         <v>53</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>54</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>55</v>
-      </c>
-      <c r="M3" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4">
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8076200088933917</v>
+        <v>0.8057162933874049</v>
       </c>
       <c r="G4">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="H4">
         <v>42</v>
@@ -2569,39 +2530,39 @@
         <v>900</v>
       </c>
       <c r="J4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" t="s">
         <v>53</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>54</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>55</v>
-      </c>
-      <c r="M4" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5">
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8088902889338684</v>
+        <v>0.8506984884738458</v>
       </c>
       <c r="G5">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H5">
         <v>42</v>
@@ -2610,39 +2571,39 @@
         <v>900</v>
       </c>
       <c r="J5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" t="s">
         <v>53</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>54</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>55</v>
-      </c>
-      <c r="M5" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6">
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8512965106876673</v>
+        <v>0.8519610456147152</v>
       </c>
       <c r="G6">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="H6">
         <v>42</v>
@@ -2651,16 +2612,16 @@
         <v>900</v>
       </c>
       <c r="J6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" t="s">
         <v>53</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>54</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>55</v>
-      </c>
-      <c r="M6" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2678,63 +2639,63 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2">
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9251497762531549</v>
+        <v>0.911326233518868</v>
       </c>
       <c r="G2">
         <v>27</v>
@@ -2746,39 +2707,39 @@
         <v>900</v>
       </c>
       <c r="J2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" t="s">
         <v>53</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>54</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>55</v>
-      </c>
-      <c r="M2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3">
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9450492898295687</v>
+        <v>0.9432387643341499</v>
       </c>
       <c r="G3">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H3">
         <v>42</v>
@@ -2787,36 +2748,36 @@
         <v>900</v>
       </c>
       <c r="J3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" t="s">
         <v>53</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>54</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>55</v>
-      </c>
-      <c r="M3" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4">
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9355706157826706</v>
+        <v>0.9568815809209077</v>
       </c>
       <c r="G4">
         <v>27</v>
@@ -2828,36 +2789,36 @@
         <v>900</v>
       </c>
       <c r="J4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" t="s">
         <v>53</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>54</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>55</v>
-      </c>
-      <c r="M4" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5">
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9105671016651916</v>
+        <v>0.9463520123992213</v>
       </c>
       <c r="G5">
         <v>27</v>
@@ -2869,39 +2830,39 @@
         <v>900</v>
       </c>
       <c r="J5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" t="s">
         <v>53</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>54</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>55</v>
-      </c>
-      <c r="M5" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6">
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9644691335615273</v>
+        <v>0.9412658309518087</v>
       </c>
       <c r="G6">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H6">
         <v>42</v>
@@ -2910,16 +2871,16 @@
         <v>900</v>
       </c>
       <c r="J6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" t="s">
         <v>53</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>54</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>55</v>
-      </c>
-      <c r="M6" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
